--- a/biology/Zoologie/Coq_de_Sonnerat/Coq_de_Sonnerat.xlsx
+++ b/biology/Zoologie/Coq_de_Sonnerat/Coq_de_Sonnerat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallus sonneratii
 Le Coq de Sonnerat (Gallus sonneratii) est une espèce d'oiseaux de la famille des Phasianidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore l'explorateur et naturaliste Pierre Sonnerat (1748-1814).
 </t>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sa crête est simple et dentelée comme Gallus gallus, mais son plumage diffère des autres coqs sauvages par sa structure, car le rachis des plumes est aplati et brillant et la base de la queue n'a pas de lancettes. Les oreillons et les barbillons sont rouges.
 Chez cette espèce, il y a une « phase d'éclipse » du plumage du coq comme pour les sous-espèces sauvages de Gallus gallus, période durant laquelle les faucilles tombent et l'ensemble des plumes du camail raccourcissent et deviennent noires.
 C'est l'espèce du genre Gallus qui s'adapte le mieux à la captivité avec Gallus gallus.
 Une mutation maintenant fixée de Gallus sonneratii a eu lieu en captivité en Angleterre en 1975, ayant transmis un plumage « lavande » plus pâle que la variété sauvage. Par conséquent, cette variété est considérée comme domestique.
-Des chercheurs français et suédois ont montré chez certaines poules domestiques la présence d'un gène issu d'hybridation avec Gallus sonneratii, ayant transmis le caractère héréditaire récessif (W*Y) « peau jaune » à plusieurs races domestiques[1]. Néanmoins, les races domestiques sont classées comme sous-espèces de Gallus gallus, cette espèce dominant dans son patrimoine génétique.</t>
+Des chercheurs français et suédois ont montré chez certaines poules domestiques la présence d'un gène issu d'hybridation avec Gallus sonneratii, ayant transmis le caractère héréditaire récessif (W*Y) « peau jaune » à plusieurs races domestiques. Néanmoins, les races domestiques sont classées comme sous-espèces de Gallus gallus, cette espèce dominant dans son patrimoine génétique.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les phasianidés, le dimorphisme sexuel est très marqué : le coq est plus grand et vivement coloré avec des ergots sur les tarses, alors que la poule est plus petite et plus terne, ce qui lui permet de se camoufler lors de la couvaison.
 La crête est développée chez le coq, alors qu'elle  est quasi inexistante chez la poule.
@@ -609,7 +627,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est essentiellement monogame.
 La période de reproduction est généralement de février à mai, mais peut varier selon les régions.
@@ -648,7 +668,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coq de Sonnerat vit au sud et à l'ouest de l'Inde, dans des environnements très diversifiés.
 Son principal prédateur en milieu naturel est l'aigle montagnard.
@@ -681,7 +703,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Omnivore, il se nourrit principalement de graines et d'insectes.
 </t>
